--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Angpt2-Tie1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Angpt2-Tie1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.06781033333333</v>
+        <v>8.107822000000001</v>
       </c>
       <c r="H2">
-        <v>75.20343099999999</v>
+        <v>24.323466</v>
       </c>
       <c r="I2">
-        <v>0.7308832858982242</v>
+        <v>0.4676336537051783</v>
       </c>
       <c r="J2">
-        <v>0.7308832858982242</v>
+        <v>0.4676336537051783</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.58696433333333</v>
+        <v>61.58332300000001</v>
       </c>
       <c r="N2">
-        <v>103.760893</v>
+        <v>184.749969</v>
       </c>
       <c r="O2">
-        <v>0.9801058085769325</v>
+        <v>0.9887285514905405</v>
       </c>
       <c r="P2">
-        <v>0.9801058085769326</v>
+        <v>0.9887285514905406</v>
       </c>
       <c r="Q2">
-        <v>867.0194619137648</v>
+        <v>499.3066210525061</v>
       </c>
       <c r="R2">
-        <v>7803.175157223882</v>
+        <v>4493.759589472555</v>
       </c>
       <c r="S2">
-        <v>0.7163429539006443</v>
+        <v>0.46236274505615</v>
       </c>
       <c r="T2">
-        <v>0.7163429539006444</v>
+        <v>0.46236274505615</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.06781033333333</v>
+        <v>8.107822000000001</v>
       </c>
       <c r="H3">
-        <v>75.20343099999999</v>
+        <v>24.323466</v>
       </c>
       <c r="I3">
-        <v>0.7308832858982242</v>
+        <v>0.4676336537051783</v>
       </c>
       <c r="J3">
-        <v>0.7308832858982242</v>
+        <v>0.4676336537051783</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>0.773258</v>
       </c>
       <c r="O3">
-        <v>0.007304049101896046</v>
+        <v>0.004138253805436213</v>
       </c>
       <c r="P3">
-        <v>0.007304049101896047</v>
+        <v>0.004138253805436213</v>
       </c>
       <c r="Q3">
-        <v>6.461294960910888</v>
+        <v>2.089812741358667</v>
       </c>
       <c r="R3">
-        <v>58.151654648198</v>
+        <v>18.808314672228</v>
       </c>
       <c r="S3">
-        <v>0.005338407407955755</v>
+        <v>0.001935186746995495</v>
       </c>
       <c r="T3">
-        <v>0.005338407407955756</v>
+        <v>0.001935186746995494</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.06781033333333</v>
+        <v>8.107822000000001</v>
       </c>
       <c r="H4">
-        <v>75.20343099999999</v>
+        <v>24.323466</v>
       </c>
       <c r="I4">
-        <v>0.7308832858982242</v>
+        <v>0.4676336537051783</v>
       </c>
       <c r="J4">
-        <v>0.7308832858982242</v>
+        <v>0.4676336537051783</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>1.332881</v>
       </c>
       <c r="O4">
-        <v>0.01259014232117133</v>
+        <v>0.007133194704023267</v>
       </c>
       <c r="P4">
-        <v>0.01259014232117133</v>
+        <v>0.007133194704023268</v>
       </c>
       <c r="Q4">
-        <v>11.13746936830122</v>
+        <v>3.602253965060667</v>
       </c>
       <c r="R4">
-        <v>100.237224314711</v>
+        <v>32.420285685546</v>
       </c>
       <c r="S4">
-        <v>0.009201924589623999</v>
+        <v>0.003335721902032829</v>
       </c>
       <c r="T4">
-        <v>0.009201924589624001</v>
+        <v>0.003335721902032829</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>2.679154</v>
       </c>
       <c r="I5">
-        <v>0.02603802583086097</v>
+        <v>0.05150839004025344</v>
       </c>
       <c r="J5">
-        <v>0.02603802583086097</v>
+        <v>0.05150839004025344</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.58696433333333</v>
+        <v>61.58332300000001</v>
       </c>
       <c r="N5">
-        <v>103.760893</v>
+        <v>184.749969</v>
       </c>
       <c r="O5">
-        <v>0.9801058085769325</v>
+        <v>0.9887285514905405</v>
       </c>
       <c r="P5">
-        <v>0.9801058085769326</v>
+        <v>0.9887285514905406</v>
       </c>
       <c r="Q5">
-        <v>30.88793461383577</v>
+        <v>54.99706871624733</v>
       </c>
       <c r="R5">
-        <v>277.9914115245219</v>
+        <v>494.973618446226</v>
       </c>
       <c r="S5">
-        <v>0.02552002036070305</v>
+        <v>0.05092781587410957</v>
       </c>
       <c r="T5">
-        <v>0.02552002036070305</v>
+        <v>0.05092781587410957</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>2.679154</v>
       </c>
       <c r="I6">
-        <v>0.02603802583086097</v>
+        <v>0.05150839004025344</v>
       </c>
       <c r="J6">
-        <v>0.02603802583086097</v>
+        <v>0.05150839004025344</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>0.773258</v>
       </c>
       <c r="O6">
-        <v>0.007304049101896046</v>
+        <v>0.004138253805436213</v>
       </c>
       <c r="P6">
-        <v>0.007304049101896047</v>
+        <v>0.004138253805436213</v>
       </c>
       <c r="Q6">
         <v>0.2301863626368889</v>
@@ -818,10 +818,10 @@
         <v>2.071677263732</v>
       </c>
       <c r="S6">
-        <v>0.0001901830191850461</v>
+        <v>0.0002131547910959715</v>
       </c>
       <c r="T6">
-        <v>0.0001901830191850461</v>
+        <v>0.0002131547910959715</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>2.679154</v>
       </c>
       <c r="I7">
-        <v>0.02603802583086097</v>
+        <v>0.05150839004025344</v>
       </c>
       <c r="J7">
-        <v>0.02603802583086097</v>
+        <v>0.05150839004025344</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>1.332881</v>
       </c>
       <c r="O7">
-        <v>0.01259014232117133</v>
+        <v>0.007133194704023267</v>
       </c>
       <c r="P7">
-        <v>0.01259014232117133</v>
+        <v>0.007133194704023268</v>
       </c>
       <c r="Q7">
         <v>0.3967770514082221</v>
@@ -880,10 +880,10 @@
         <v>3.570993462673999</v>
       </c>
       <c r="S7">
-        <v>0.0003278224509728751</v>
+        <v>0.0003674193750479007</v>
       </c>
       <c r="T7">
-        <v>0.0003278224509728751</v>
+        <v>0.0003674193750479007</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>25.011314</v>
       </c>
       <c r="I8">
-        <v>0.2430786882709149</v>
+        <v>0.4808579562545683</v>
       </c>
       <c r="J8">
-        <v>0.2430786882709149</v>
+        <v>0.4808579562545682</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>34.58696433333333</v>
+        <v>61.58332300000001</v>
       </c>
       <c r="N8">
-        <v>103.760893</v>
+        <v>184.749969</v>
       </c>
       <c r="O8">
-        <v>0.9801058085769325</v>
+        <v>0.9887285514905405</v>
       </c>
       <c r="P8">
-        <v>0.9801058085769326</v>
+        <v>0.9887285514905406</v>
       </c>
       <c r="Q8">
-        <v>288.3551417492669</v>
+        <v>513.4266095721407</v>
       </c>
       <c r="R8">
-        <v>2595.196275743402</v>
+        <v>4620.839486149266</v>
       </c>
       <c r="S8">
-        <v>0.2382428343155852</v>
+        <v>0.475437990560281</v>
       </c>
       <c r="T8">
-        <v>0.2382428343155852</v>
+        <v>0.475437990560281</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>25.011314</v>
       </c>
       <c r="I9">
-        <v>0.2430786882709149</v>
+        <v>0.4808579562545683</v>
       </c>
       <c r="J9">
-        <v>0.2430786882709149</v>
+        <v>0.4808579562545682</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>0.773258</v>
       </c>
       <c r="O9">
-        <v>0.007304049101896046</v>
+        <v>0.004138253805436213</v>
       </c>
       <c r="P9">
-        <v>0.007304049101896047</v>
+        <v>0.004138253805436213</v>
       </c>
       <c r="Q9">
         <v>2.148910960112445</v>
@@ -1004,10 +1004,10 @@
         <v>19.340198641012</v>
       </c>
       <c r="S9">
-        <v>0.001775458674755245</v>
+        <v>0.001989912267344747</v>
       </c>
       <c r="T9">
-        <v>0.001775458674755245</v>
+        <v>0.001989912267344747</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>25.011314</v>
       </c>
       <c r="I10">
-        <v>0.2430786882709149</v>
+        <v>0.4808579562545683</v>
       </c>
       <c r="J10">
-        <v>0.2430786882709149</v>
+        <v>0.4808579562545682</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>1.332881</v>
       </c>
       <c r="O10">
-        <v>0.01259014232117133</v>
+        <v>0.007133194704023267</v>
       </c>
       <c r="P10">
-        <v>0.01259014232117133</v>
+        <v>0.007133194704023268</v>
       </c>
       <c r="Q10">
         <v>3.704122801737111</v>
@@ -1066,10 +1066,10 @@
         <v>33.337105215634</v>
       </c>
       <c r="S10">
-        <v>0.00306039528057446</v>
+        <v>0.003430053426942538</v>
       </c>
       <c r="T10">
-        <v>0.00306039528057446</v>
+        <v>0.003430053426942538</v>
       </c>
     </row>
   </sheetData>
